--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,30 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>TransactionID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>User</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
@@ -463,27 +468,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>dcx</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23</t>
+          <t>a3e020af-4f3b-4b3a-9a17-15db91de086e</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8f74c6f4-232f-4abd-a1db-bdf9705b8468</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>l</t>
         </is>
       </c>
     </row>

--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,50 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9a7e7f0c-421d-4256-a6cc-765416339635</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>,.,.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>lkk</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>klk</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>lj</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2b63aea2-c4ed-4e4c-8cab-c7878c4fee10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
